--- a/medicine/Psychotrope/Böhmisch_Brauhaus_Großröhrsdorf/Böhmisch_Brauhaus_Großröhrsdorf.xlsx
+++ b/medicine/Psychotrope/Böhmisch_Brauhaus_Großröhrsdorf/Böhmisch_Brauhaus_Großröhrsdorf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%B6hmisch_Brauhaus_Gro%C3%9Fr%C3%B6hrsdorf</t>
+          <t>Böhmisch_Brauhaus_Großröhrsdorf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Böhmisch Brauhaus Großröhrsdorf est une brasserie à Großröhrsdorf, dans le Land de Saxe.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%B6hmisch_Brauhaus_Gro%C3%9Fr%C3%B6hrsdorf</t>
+          <t>Böhmisch_Brauhaus_Großröhrsdorf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie ouvre en 1887. La famille entrepreneuriale de Grossröhrsdorf, Großmann, finance la construction. Le premier locataire de la brasserie est Albin Nestler. Après avoir brassé environ 14 000 hectolitres de bière par an jusqu'au début de la Première Guerre mondiale, la production devient de l'eau minérale en 1916-1917 en raison de la guerre.
 Après la fin de la Première Guerre mondiale, la brasserie reprend. Dans les années 1930 et 1960, l'entreprise est fondamentalement agrandie et modernisée. Après la nationalisation en 1972, la brasserie est incorporée en 1975 en tant que Betriebsteil Werk Bautzen dans le VEB Dresdner Brauereien.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%B6hmisch_Brauhaus_Gro%C3%9Fr%C3%B6hrsdorf</t>
+          <t>Böhmisch_Brauhaus_Großröhrsdorf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Böhmisch Brauhaus Pilsner
 Böhmisch Brauhaus Eisbier
